--- a/Injections/2022-06-20/injection_Data_2022-06-20.xlsx
+++ b/Injections/2022-06-20/injection_Data_2022-06-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amymad138\Documents\Ecuador2022\Injections\2022-06-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FFC572-49E4-41D6-BF30-0E645373B1DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA726E-D417-4D7C-86D9-AC14C5BB42DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11020" windowHeight="6280" activeTab="1" xr2:uid="{082DAD64-245C-403B-A4E6-7F4286AC56F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11020" windowHeight="6280" xr2:uid="{082DAD64-245C-403B-A4E6-7F4286AC56F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
   <si>
     <t>Injection Date</t>
   </si>
@@ -324,14 +324,23 @@
     <t>Visala launched in water at 11:45</t>
   </si>
   <si>
-    <t>CHECK THIS ONE</t>
+    <t xml:space="preserve"> Injection (Plateau)</t>
+  </si>
+  <si>
+    <t>Discharge_salt injections (m^3/s)</t>
+  </si>
+  <si>
+    <t>Hobos in water @12:15</t>
+  </si>
+  <si>
+    <t>(-0.330980, -78.203179)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,12 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -410,13 +413,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -491,7 +487,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -517,23 +513,8 @@
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -809,46 +790,46 @@
                   <c:v>0.54166666666666674</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.64687499999999998</c:v>
+                  <c:v>0.54756944444444444</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.64722222222222225</c:v>
+                  <c:v>0.54791666666666672</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.64756944444444442</c:v>
+                  <c:v>0.54826388888888888</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.6479166666666667</c:v>
+                  <c:v>0.54861111111111116</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.6489583333333333</c:v>
+                  <c:v>0.54965277777777777</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.64930555555555558</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.64965277777777775</c:v>
+                  <c:v>0.55034722222222221</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.65</c:v>
+                  <c:v>0.55069444444444449</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.65034722222222219</c:v>
+                  <c:v>0.55104166666666665</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.65069444444444446</c:v>
+                  <c:v>0.55138888888888893</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.65104166666666663</c:v>
+                  <c:v>0.55173611111111109</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.65138888888888891</c:v>
+                  <c:v>0.55208333333333337</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.65173611111111107</c:v>
+                  <c:v>0.55243055555555554</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.65208333333333335</c:v>
+                  <c:v>0.55277777777777781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,7 +1024,7 @@
                   <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27.3</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>27.4</c:v>
@@ -1100,7 +1081,7 @@
         <c:axId val="2032694688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="0.55000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2170,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E533E0-484E-4B01-B2D1-63A268D58C83}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2182,7 +2163,7 @@
     <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2190,12 +2171,15 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2203,7 +2187,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2211,7 +2195,7 @@
         <v>0.51041666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2219,7 +2203,7 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2227,10 +2211,10 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2238,7 +2222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2249,7 +2233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2260,7 +2244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2272,7 +2256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2284,21 +2268,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>11261</v>
+        <v>7262</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2309,7 +2290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2457,6 +2438,11 @@
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2467,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F900F333-94FD-4EDC-B841-00B0E4283002}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2567,7 +2553,7 @@
       <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="21">
         <f>AVERAGE('upstream flow rate'!C5:C13)</f>
         <v>548.54921313254658</v>
       </c>
@@ -2596,14 +2582,11 @@
       <c r="B10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="29">
-        <v>27</v>
+      <c r="C10" s="22">
+        <v>33.799999999999997</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2615,7 +2598,7 @@
       </c>
       <c r="C11">
         <f>AVERAGE('downstream condutivity'!C71:C84)</f>
-        <v>23.978571428571431</v>
+        <v>23.85</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -2640,7 +2623,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14">
         <f>((C9-C11)*C9)/(C10-C11)</f>
-        <v>41880883.600472853</v>
+        <v>12717743.331658296</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
@@ -2649,7 +2632,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15">
         <f>B14/1000/60</f>
-        <v>698.01472667454755</v>
+        <v>211.9623888609716</v>
       </c>
       <c r="C15" t="s">
         <v>93</v>
@@ -2658,7 +2641,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <f>B15/1000</f>
-        <v>0.69801472667454756</v>
+        <v>0.2119623888609716</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>94</v>
@@ -2673,178 +2656,189 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>6.4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>28.7</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20">
+        <f>(((C9-B20)*C8)/(D20-B20))/1000/60/1000</f>
+        <v>1.8025134670127368E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>24.2</v>
+      </c>
+      <c r="C21">
+        <v>6.3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>28.5</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21">
+        <f>(((C9-B21)*C8)/(D21-B21))/1000/60/1000</f>
+        <v>2.3891231775689144E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>6.4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>28.3</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22">
+        <f>(((C9-B22)*C8)/(D22-B22))/1000/60/1000</f>
+        <v>1.630990636612881E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>21.9</v>
+      </c>
+      <c r="C23">
+        <v>6.3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23">
+        <f>(((C9-B23)*C8/(D23-B23))/1000/60/1000)</f>
+        <v>7.2874698124326294E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>22.6</v>
+      </c>
+      <c r="C24">
+        <v>6.3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>33.1</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24">
+        <f>(((C9-B24)*C8)/(D24-B24))/1000/60/1000</f>
+        <v>9.7854213918552573E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>5</v>
       </c>
-      <c r="B18">
+      <c r="B25">
         <v>23.2</v>
       </c>
-      <c r="C18">
+      <c r="C25">
         <v>6.3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D25" s="7">
         <v>36.4</v>
       </c>
-      <c r="F18" s="7">
-        <v>3.5100000000000001E-3</v>
-      </c>
-      <c r="G18" t="e">
-        <f>(((C1-B18)*#REF!)/(D18-B18))/1000/60/1000</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>0</v>
-      </c>
-      <c r="B19">
+      <c r="F25" s="7"/>
+      <c r="G25">
+        <f>(((C9-B25)*C8)/(D25-B25))/1000/60/1000</f>
+        <v>7.7834423577537015E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>0</v>
+      </c>
+      <c r="B26">
         <v>23.2</v>
       </c>
-      <c r="C19">
+      <c r="C26">
         <v>6.3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D26" s="7">
         <v>37.6</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" t="e">
-        <f>(((C1-B19)*#REF!)/(D19-B19))/1000/60/1000</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" t="e">
-        <f>(((C1-B20)*#REF!)/(D20-B20))/1000/60/1000</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" t="e">
-        <f>(((C1-B21)*#REF!)/(D21-B21))/1000/60/1000</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" t="e">
-        <f>(((C1-B22)*#REF!)/(D22-B22))/1000/60/1000</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="G23" t="e">
-        <f>(((C1-B23)*#REF!)/(D23-B23))/1000/60/1000</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="F26" s="7"/>
+      <c r="G26">
+        <f>(((C9-B26)*C8)/(D26-B26))/1000/60/1000</f>
+        <v>7.1348221612742247E-3</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="A28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="21"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="21"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="21"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="A30" s="8"/>
+      <c r="D30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2856,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93C07F6-0DB7-4C3B-8FB9-5C4374F00FE1}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3141,7 +3135,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3291,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26006F28-EC4C-4CDA-8B0B-CD261029F601}">
   <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="76" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A76" zoomScale="76" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3319,10 +3313,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="18">
-        <v>0.60486111111111118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
+        <v>0.5229166666666667</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3330,7 +3321,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="18">
-        <v>0.62083333333333335</v>
+        <v>0.52152777777777781</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4072,7 +4063,7 @@
       </c>
       <c r="B71" s="3">
         <f>$B$5+A71/24/60</f>
-        <v>0.64687499999999998</v>
+        <v>0.54756944444444444</v>
       </c>
       <c r="C71">
         <v>27.2</v>
@@ -4084,7 +4075,7 @@
       </c>
       <c r="B72" s="3">
         <f t="shared" ref="B72:B84" si="1">$B$5+A72/24/60</f>
-        <v>0.64722222222222225</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="C72">
         <v>27.3</v>
@@ -4096,7 +4087,7 @@
       </c>
       <c r="B73" s="3">
         <f t="shared" si="1"/>
-        <v>0.64756944444444442</v>
+        <v>0.54826388888888888</v>
       </c>
       <c r="C73">
         <v>27.3</v>
@@ -4108,10 +4099,10 @@
       </c>
       <c r="B74" s="3">
         <f t="shared" si="1"/>
-        <v>0.6479166666666667</v>
+        <v>0.54861111111111116</v>
       </c>
       <c r="C74">
-        <v>27.3</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -4120,7 +4111,7 @@
       </c>
       <c r="B75" s="3">
         <f t="shared" si="1"/>
-        <v>0.6489583333333333</v>
+        <v>0.54965277777777777</v>
       </c>
       <c r="C75">
         <v>27.4</v>
@@ -4132,7 +4123,7 @@
       </c>
       <c r="B76" s="3">
         <f t="shared" si="1"/>
-        <v>0.64930555555555558</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C76">
         <v>22.8</v>
@@ -4144,7 +4135,7 @@
       </c>
       <c r="B77" s="3">
         <f t="shared" si="1"/>
-        <v>0.64965277777777775</v>
+        <v>0.55034722222222221</v>
       </c>
       <c r="C77">
         <v>22.2</v>
@@ -4156,7 +4147,7 @@
       </c>
       <c r="B78" s="3">
         <f t="shared" si="1"/>
-        <v>0.65</v>
+        <v>0.55069444444444449</v>
       </c>
       <c r="C78">
         <v>22</v>
@@ -4168,7 +4159,7 @@
       </c>
       <c r="B79" s="3">
         <f t="shared" si="1"/>
-        <v>0.65034722222222219</v>
+        <v>0.55104166666666665</v>
       </c>
       <c r="C79">
         <v>22</v>
@@ -4180,7 +4171,7 @@
       </c>
       <c r="B80" s="3">
         <f t="shared" si="1"/>
-        <v>0.65069444444444446</v>
+        <v>0.55138888888888893</v>
       </c>
       <c r="C80">
         <v>22</v>
@@ -4192,7 +4183,7 @@
       </c>
       <c r="B81" s="3">
         <f t="shared" si="1"/>
-        <v>0.65104166666666663</v>
+        <v>0.55173611111111109</v>
       </c>
       <c r="C81">
         <v>22.1</v>
@@ -4204,7 +4195,7 @@
       </c>
       <c r="B82" s="3">
         <f t="shared" si="1"/>
-        <v>0.65138888888888891</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="C82">
         <v>22.1</v>
@@ -4216,7 +4207,7 @@
       </c>
       <c r="B83" s="3">
         <f t="shared" si="1"/>
-        <v>0.65173611111111107</v>
+        <v>0.55243055555555554</v>
       </c>
       <c r="C83">
         <v>22</v>
@@ -4228,7 +4219,7 @@
       </c>
       <c r="B84" s="3">
         <f t="shared" si="1"/>
-        <v>0.65208333333333335</v>
+        <v>0.55277777777777781</v>
       </c>
       <c r="C84">
         <v>22</v>
@@ -4430,8 +4421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34B7ED5-9EB5-441C-9FEF-168D22E3D940}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Injections/2022-06-20/injection_Data_2022-06-20.xlsx
+++ b/Injections/2022-06-20/injection_Data_2022-06-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amymad138\Documents\Ecuador2022\Injections\2022-06-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA726E-D417-4D7C-86D9-AC14C5BB42DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B00F3F2-CFA4-425A-8E4D-8F8BDE62EF1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11020" windowHeight="6280" xr2:uid="{082DAD64-245C-403B-A4E6-7F4286AC56F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11020" windowHeight="6280" firstSheet="1" activeTab="1" xr2:uid="{082DAD64-245C-403B-A4E6-7F4286AC56F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Conductivity" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
   <si>
     <t>Injection Date</t>
   </si>
@@ -334,13 +335,19 @@
   </si>
   <si>
     <t>(-0.330980, -78.203179)</t>
+  </si>
+  <si>
+    <t>Percent difference</t>
+  </si>
+  <si>
+    <t>(new-original)/original*100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +422,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -482,12 +496,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -515,11 +530,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2153,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E533E0-484E-4B01-B2D1-63A268D58C83}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2453,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F900F333-94FD-4EDC-B841-00B0E4283002}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2465,6 +2484,7 @@
     <col min="2" max="2" width="21.81640625" customWidth="1"/>
     <col min="4" max="4" width="20.453125" customWidth="1"/>
     <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -2647,7 +2667,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2655,7 +2675,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="4" t="s">
         <v>33</v>
@@ -2669,8 +2689,12 @@
       <c r="G18" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I18" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
@@ -2687,8 +2711,11 @@
         <v>29</v>
       </c>
       <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>30</v>
       </c>
@@ -2701,13 +2728,23 @@
       <c r="D20" s="7">
         <v>28.7</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>4.3350000000000003E-3</v>
+      </c>
       <c r="G20">
         <f>(((C9-B20)*C8)/(D20-B20))/1000/60/1000</f>
         <v>1.8025134670127368E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I20" s="24">
+        <f>((G20-F20)/F20)</f>
+        <v>3.1580472134088504</v>
+      </c>
+      <c r="J20" s="25">
+        <f>((F20-G20)/G20)</f>
+        <v>-0.7595024903095845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>25</v>
       </c>
@@ -2726,7 +2763,7 @@
         <v>2.3891231775689144E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -2745,7 +2782,7 @@
         <v>1.630990636612881E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>15</v>
       </c>
@@ -2764,7 +2801,7 @@
         <v>7.2874698124326294E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>10</v>
       </c>
@@ -2783,7 +2820,7 @@
         <v>9.7854213918552573E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -2802,7 +2839,7 @@
         <v>7.7834423577537015E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>0</v>
       </c>
@@ -2815,28 +2852,38 @@
       <c r="D26" s="7">
         <v>37.6</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>5.3600000000000002E-3</v>
+      </c>
       <c r="G26">
         <f>(((C9-B26)*C8)/(D26-B26))/1000/60/1000</f>
         <v>7.1348221612742247E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I26" s="25">
+        <f>((G26-F26)/F26)</f>
+        <v>0.33112353755116131</v>
+      </c>
+      <c r="J26" s="25">
+        <f>((F26-G26)/G26)</f>
+        <v>-0.24875492635365909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="D27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="D28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="D29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="D30" s="7"/>
     </row>
@@ -3134,7 +3181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF35DF1-5D15-4253-A0C7-9DDBD19AA38A}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3285,7 +3332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26006F28-EC4C-4CDA-8B0B-CD261029F601}">
   <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="76" workbookViewId="0">
+    <sheetView zoomScale="76" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -4422,7 +4469,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Injections/2022-06-20/injection_Data_2022-06-20.xlsx
+++ b/Injections/2022-06-20/injection_Data_2022-06-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amymad138\Documents\Ecuador2022\Injections\2022-06-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B00F3F2-CFA4-425A-8E4D-8F8BDE62EF1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD3560-A52F-452C-9D17-84CA52107545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11020" windowHeight="6280" firstSheet="1" activeTab="1" xr2:uid="{082DAD64-245C-403B-A4E6-7F4286AC56F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11020" windowHeight="6280" firstSheet="1" activeTab="2" xr2:uid="{082DAD64-245C-403B-A4E6-7F4286AC56F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Conductivity" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="156">
   <si>
     <t>Injection Date</t>
   </si>
@@ -341,13 +340,199 @@
   </si>
   <si>
     <t>(new-original)/original*100</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>(v*S)^.89*D^.54*5037(+/-)605</t>
+  </si>
+  <si>
+    <t>566.3645±604</t>
+  </si>
+  <si>
+    <t>356.3324±604</t>
+  </si>
+  <si>
+    <t>238.0251±604</t>
+  </si>
+  <si>
+    <t>604.8885±604</t>
+  </si>
+  <si>
+    <t>439.4112±604</t>
+  </si>
+  <si>
+    <t>314.9894±604</t>
+  </si>
+  <si>
+    <t>482.0542±604</t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equation 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Do all except 3</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>K600 equation 3</t>
+  </si>
+  <si>
+    <t>K600 equation 4</t>
+  </si>
+  <si>
+    <t>K600 equation 5</t>
+  </si>
+  <si>
+    <t>K600 equation 6</t>
+  </si>
+  <si>
+    <t>K600 equation 7</t>
+  </si>
+  <si>
+    <t>1162±192*S^.77*V^.85</t>
+  </si>
+  <si>
+    <t>((VS)^.76)*951.5±144</t>
+  </si>
+  <si>
+    <t>VS*2841±107+202±.209</t>
+  </si>
+  <si>
+    <t>929±141*(VS)^.75*Q^.011</t>
+  </si>
+  <si>
+    <t>4725±445*((vs)^.86)*q^-.14*d^.66</t>
+  </si>
+  <si>
+    <t>37.99092427±144</t>
+  </si>
+  <si>
+    <t>41.02404±107+202±.209</t>
+  </si>
+  <si>
+    <t>1162±7.005096063</t>
+  </si>
+  <si>
+    <t>1162±6.433810458</t>
+  </si>
+  <si>
+    <t>1162±8.945652453</t>
+  </si>
+  <si>
+    <t>1162±12.3706914</t>
+  </si>
+  <si>
+    <t>1162±6.433810358</t>
+  </si>
+  <si>
+    <t>1162±7.28764105</t>
+  </si>
+  <si>
+    <t>40.99338551±144</t>
+  </si>
+  <si>
+    <t>42.46864065±144</t>
+  </si>
+  <si>
+    <t>51.01139809±144</t>
+  </si>
+  <si>
+    <t>68.16208301±144</t>
+  </si>
+  <si>
+    <t>45.34236±107+202±.209</t>
+  </si>
+  <si>
+    <t>60.45648±107+202±.209</t>
+  </si>
+  <si>
+    <t>88.52556±107+202±.209</t>
+  </si>
+  <si>
+    <t>47.50152±107+202±.209</t>
+  </si>
+  <si>
+    <t>VS*2841±107+202±.209±107+202±.209</t>
+  </si>
+  <si>
+    <t>929±5.99627</t>
+  </si>
+  <si>
+    <t>929±6.05105</t>
+  </si>
+  <si>
+    <t>929±5.56798</t>
+  </si>
+  <si>
+    <t>929±5.61965</t>
+  </si>
+  <si>
+    <t>929±7.46611</t>
+  </si>
+  <si>
+    <t>929±9.90616</t>
+  </si>
+  <si>
+    <t>929±6.29226</t>
+  </si>
+  <si>
+    <t>4725±157.8388256</t>
+  </si>
+  <si>
+    <t>4725±90.54472388</t>
+  </si>
+  <si>
+    <t>4725±116.4687215</t>
+  </si>
+  <si>
+    <t>4725±49.02462382</t>
+  </si>
+  <si>
+    <t>4725±146.4444424</t>
+  </si>
+  <si>
+    <t>4725±103.0920293</t>
+  </si>
+  <si>
+    <t>4725±64.37392844</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +614,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -502,7 +695,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -533,6 +726,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -2474,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F900F333-94FD-4EDC-B841-00B0E4283002}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A5" zoomScale="78" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2895,26 +3089,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93C07F6-0DB7-4C3B-8FB9-5C4374F00FE1}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="9.36328125" customWidth="1"/>
+    <col min="13" max="13" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:25" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -2936,239 +3148,610 @@
       <c r="G2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="L2" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M2" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3">
+        <v>112</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="P3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T3" t="s">
+        <v>122</v>
+      </c>
+      <c r="U3" t="s">
+        <v>141</v>
+      </c>
+      <c r="V3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>0</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>0.21</v>
-      </c>
-      <c r="J3">
-        <v>23.2</v>
-      </c>
-      <c r="K3">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>5</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>0.21</v>
       </c>
       <c r="I4">
-        <v>0.19</v>
+        <v>23.2</v>
       </c>
       <c r="J4">
-        <v>23.2</v>
-      </c>
-      <c r="K4">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M4">
+        <f>((H4*N19)^0.89)*(E4^0.54)*5037</f>
+        <v>566.36448329152813</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4">
+        <f>192*(N19^0.77)*(H4^0.85)</f>
+        <v>7.0050960631522736</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4">
+        <f>((H4*N19)^0.76)*951.5</f>
+        <v>40.993385509231494</v>
+      </c>
+      <c r="S4" t="s">
+        <v>133</v>
+      </c>
+      <c r="T4">
+        <f>H4*N19*2841</f>
+        <v>45.342359999999992</v>
+      </c>
+      <c r="U4" t="s">
+        <v>137</v>
+      </c>
+      <c r="V4" s="26">
+        <f>141*((H4*N19)^0.75)*(('Conductivity (2)'!G26)^0.011)</f>
+        <v>5.9962674121665538</v>
+      </c>
+      <c r="W4" t="s">
+        <v>142</v>
+      </c>
+      <c r="X4">
+        <f>445*((H4*N19)^0.86)*('Conductivity (2)'!G26^-0.14)*(E4^0.66)</f>
+        <v>157.83882564202227</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0.19</v>
+      </c>
+      <c r="I5">
+        <v>23.2</v>
+      </c>
+      <c r="J5">
+        <v>6.3</v>
+      </c>
+      <c r="M5">
+        <f>((H5*N19)^0.89)*(E5^0.54)*5037</f>
+        <v>356.33242695977748</v>
+      </c>
+      <c r="N5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5">
+        <f>192*(N19^0.77)*(H5^0.85)</f>
+        <v>6.4338103581792128</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>128</v>
+      </c>
+      <c r="R5">
+        <f>((H5*N19)^0.76)*951.5</f>
+        <v>37.990924267803038</v>
+      </c>
+      <c r="S5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5">
+        <f>H5*N19*2841</f>
+        <v>41.024039999999999</v>
+      </c>
+      <c r="U5" t="s">
+        <v>126</v>
+      </c>
+      <c r="V5" s="26">
+        <f>141*((H5*N19)^0.75)*(('Conductivity (2)'!G25)^0.011)</f>
+        <v>5.5679765357714341</v>
+      </c>
+      <c r="W5" t="s">
+        <v>144</v>
+      </c>
+      <c r="X5">
+        <f>445*((H5*N19)^0.86)*('Conductivity (2)'!G25^-0.14)*(E5^0.66)</f>
+        <v>90.544723884029366</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="H6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J5">
+      <c r="I6">
         <v>22.6</v>
       </c>
-      <c r="K5">
+      <c r="J6">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="M6">
+        <f>((H6*N19)^0.89)*(E6^0.54)*5037</f>
+        <v>238.02517522538849</v>
+      </c>
+      <c r="N6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P6">
+        <f>192*(N19^0.77)*(H6^0.85)</f>
+        <v>8.9456524526866481</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>129</v>
+      </c>
+      <c r="R6">
+        <f>((H6*N19)^0.76)*951.5</f>
+        <v>51.01139808974979</v>
+      </c>
+      <c r="S6" t="s">
+        <v>135</v>
+      </c>
+      <c r="T6">
+        <f>H6*N19*2841</f>
+        <v>60.456479999999999</v>
+      </c>
+      <c r="U6" t="s">
+        <v>138</v>
+      </c>
+      <c r="V6" s="26">
+        <f>141*((H6*N19)^0.75)*(('Conductivity (2)'!G24)^0.011)</f>
+        <v>7.4661069232219761</v>
+      </c>
+      <c r="W6" t="s">
+        <v>146</v>
+      </c>
+      <c r="X6">
+        <f>445*((H6*N19)^0.86)*('Conductivity (2)'!G24^-0.14)*(E6^0.66)</f>
+        <v>49.024623819510495</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>31</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="H7">
         <v>0.41</v>
       </c>
-      <c r="J6">
+      <c r="I7">
         <v>21.9</v>
       </c>
-      <c r="K6">
+      <c r="J7">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="M7">
+        <f>((H7*N19)^0.89)*(E7^0.54)*5037</f>
+        <v>604.88853871386948</v>
+      </c>
+      <c r="N7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7">
+        <f>192*(N19^0.77)*(H7^0.85)</f>
+        <v>12.370691396389635</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7">
+        <f>((H7*N19)^0.76)*951.5</f>
+        <v>68.162083011697121</v>
+      </c>
+      <c r="S7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T7">
+        <f>H7*N19*2841</f>
+        <v>88.525559999999984</v>
+      </c>
+      <c r="U7" t="s">
+        <v>139</v>
+      </c>
+      <c r="V7" s="26">
+        <f>141*((H7*N19)^0.75)*(('Conductivity (2)'!G23)^0.011)</f>
+        <v>9.9061646902122309</v>
+      </c>
+      <c r="W7" t="s">
+        <v>147</v>
+      </c>
+      <c r="X7">
+        <f>445*((H7*N19)^0.86)*('Conductivity (2)'!G23^-0.14)*(E7^0.66)</f>
+        <v>146.44444239784451</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>25</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="I7">
+      <c r="H8">
         <v>0.21</v>
       </c>
-      <c r="J7">
+      <c r="I8">
         <v>22</v>
       </c>
-      <c r="K7">
+      <c r="J8">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="M8">
+        <f>((H8*N19)^0.89)*(E8^0.54)*5037</f>
+        <v>439.41129914803128</v>
+      </c>
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8">
+        <f>192*(N19^0.77)*(H8^0.85)</f>
+        <v>7.0050960631522736</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8">
+        <f>((H8*N19)^0.76)*951.5</f>
+        <v>40.993385509231494</v>
+      </c>
+      <c r="S8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8">
+        <f>H8*N19*2841</f>
+        <v>45.342359999999992</v>
+      </c>
+      <c r="U8" t="s">
+        <v>137</v>
+      </c>
+      <c r="V8" s="26">
+        <f>141*((H8*N19)^0.75)*(('Conductivity (2)'!G22)^0.011)</f>
+        <v>6.0510500352109178</v>
+      </c>
+      <c r="W8" t="s">
+        <v>143</v>
+      </c>
+      <c r="X8">
+        <f>445*((H8*N19)^0.86)*('Conductivity (2)'!G22^-0.14)*(E8^0.66)</f>
+        <v>103.09202925419379</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>25</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>30</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="I8">
+      <c r="H9">
         <v>0.22</v>
       </c>
-      <c r="J8">
+      <c r="I9">
         <v>24.2</v>
       </c>
-      <c r="K8">
+      <c r="J9">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="M9">
+        <f>((H9*N19)^0.89)*(E9^0.54)*5037</f>
+        <v>314.98947040471103</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9">
+        <f>192*(N19^0.77)*(H9^0.85)</f>
+        <v>7.2876410496164032</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9">
+        <f>((H9*N19)^0.76)*951.5</f>
+        <v>42.468640650641156</v>
+      </c>
+      <c r="S9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9">
+        <f>H9*N19*2841</f>
+        <v>47.501519999999999</v>
+      </c>
+      <c r="U9" t="s">
+        <v>140</v>
+      </c>
+      <c r="V9" s="26">
+        <f>141*((H9*N19)^0.75)*(('Conductivity (2)'!G21)^0.011)</f>
+        <v>6.2922640829374092</v>
+      </c>
+      <c r="W9" t="s">
+        <v>148</v>
+      </c>
+      <c r="X9">
+        <f>445*((H9*N19)^0.86)*('Conductivity (2)'!G21^-0.14)*(E9^0.66)</f>
+        <v>64.373928439562761</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>30</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>45</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>12</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>14</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="I9">
+      <c r="H10">
         <v>0.19</v>
       </c>
-      <c r="J9">
+      <c r="I10">
         <v>23</v>
       </c>
-      <c r="K9">
+      <c r="J10">
         <v>6.4</v>
+      </c>
+      <c r="M10">
+        <f>((H10*N19)^0.89)*(E10^0.54)*5037</f>
+        <v>482.05422331493281</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10">
+        <f>192*(N19^0.77)*(H10^0.85)</f>
+        <v>6.4338103581792128</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>131</v>
+      </c>
+      <c r="R10">
+        <f>((H10*N19)^0.76)*951.5</f>
+        <v>37.990924267803038</v>
+      </c>
+      <c r="S10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T10">
+        <f>H10*N19*2841</f>
+        <v>41.024039999999999</v>
+      </c>
+      <c r="U10" t="s">
+        <v>126</v>
+      </c>
+      <c r="V10" s="26">
+        <f>141*((H10*N19)^0.75)*(('Conductivity (2)'!G20)^0.011)</f>
+        <v>5.6196487495376095</v>
+      </c>
+      <c r="W10" t="s">
+        <v>145</v>
+      </c>
+      <c r="X10">
+        <f>445*((H10*N19)^0.86)*('Conductivity (2)'!G20^-0.14)*(E10^0.66)</f>
+        <v>116.46872150285589</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V11" s="26"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V12" s="26"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V13" s="26"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V14" s="26"/>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N18" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
